--- a/newwisedata/testssh_ans/mcmc8.xlsx
+++ b/newwisedata/testssh_ans/mcmc8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -490,27 +500,33 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>4.05</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2" t="n">
         <v>150.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>151</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>150.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>193</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -524,27 +540,33 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.31</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H3" t="n">
         <v>132.2</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>132.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>132.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>208</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,27 +580,33 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.23</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H4" t="n">
         <v>99.8</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>99.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>143</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -592,27 +620,33 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.52</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>138.9</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>139.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>138.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>193</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -626,27 +660,33 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>130</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.94</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" t="n">
         <v>172</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>172.1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>171.9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>390</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130</v>
       </c>
     </row>
@@ -660,27 +700,33 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.95</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H7" t="n">
         <v>74.2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>74.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>74</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>111</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>18</v>
       </c>
     </row>
@@ -694,27 +740,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E8" t="n">
-        <v>600</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.057</v>
       </c>
       <c r="G8" t="n">
-        <v>600</v>
+        <v>0.52</v>
       </c>
       <c r="H8" t="n">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="I8" t="n">
+        <v>926</v>
+      </c>
+      <c r="J8" t="n">
+        <v>923.8</v>
+      </c>
+      <c r="K8" t="n">
         <v>2938</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>470</v>
       </c>
     </row>
@@ -728,27 +780,33 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.44</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E9" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H9" t="n">
         <v>150.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>150.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>150.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>242</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,27 +820,33 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.66</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H10" t="n">
         <v>204.2</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>204.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>203.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>254</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -796,27 +860,33 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.63</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
         <v>238.2</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>238.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>238</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>382</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -830,27 +900,33 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.89</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H12" t="n">
         <v>126</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>126.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>125.8</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>315</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -864,27 +940,33 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.15</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="n">
         <v>301.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>302.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>301.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>628</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -898,27 +980,33 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.92</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H14" t="n">
         <v>203.4</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>203.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>203.1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>402</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -932,27 +1020,33 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
         <v>2.53</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H15" t="n">
         <v>137.5</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>137.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>137.3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>200</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -966,27 +1060,33 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>32</v>
+      </c>
+      <c r="D16" t="n">
         <v>3.64</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H16" t="n">
         <v>139.2</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>139.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>139</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>180</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1000,27 +1100,33 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.63</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="n">
         <v>225.5</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>226.1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>224.9</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>352</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1034,27 +1140,33 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.5</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>600</v>
-      </c>
       <c r="F18" t="n">
         <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>600</v>
+        <v>0.39</v>
       </c>
       <c r="H18" t="n">
-        <v>600</v>
+        <v>1116.6</v>
       </c>
       <c r="I18" t="n">
+        <v>1118.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1114.9</v>
+      </c>
+      <c r="K18" t="n">
         <v>2877</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1068,27 +1180,33 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.24</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E19" t="n">
-        <v>600</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>600</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="n">
         <v>600</v>
       </c>
       <c r="I19" t="n">
+        <v>600</v>
+      </c>
+      <c r="J19" t="n">
+        <v>600</v>
+      </c>
+      <c r="K19" t="n">
         <v>212</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1105,24 +1223,30 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H20" t="n">
         <v>120.9</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>121.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>120.8</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>101</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1136,27 +1260,33 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.7</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
       <c r="E21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H21" t="n">
         <v>124.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>124.7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>124</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>236</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1170,27 +1300,33 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
         <v>2.29</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>133</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>133.2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>132.7</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>153</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1204,27 +1340,33 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.39</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H23" t="n">
         <v>112.1</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>112.3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>111.9</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>234</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1238,27 +1380,33 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.28</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.16</v>
-      </c>
       <c r="E24" t="n">
-        <v>600</v>
+        <v>0.24</v>
       </c>
       <c r="F24" t="n">
         <v>0.057</v>
       </c>
       <c r="G24" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>600</v>
       </c>
       <c r="I24" t="n">
+        <v>600</v>
+      </c>
+      <c r="J24" t="n">
+        <v>600</v>
+      </c>
+      <c r="K24" t="n">
         <v>3107</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1272,27 +1420,33 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
         <v>2.81</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
       <c r="E25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H25" t="n">
         <v>162.2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>162.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>161.9</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>228</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1306,27 +1460,33 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H26" t="n">
         <v>141.8</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>141.9</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>141.6</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>218</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1340,27 +1500,33 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
         <v>2.94</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H27" t="n">
         <v>120.2</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>120.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>119.8</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>180</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1374,27 +1540,33 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
       <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H28" t="n">
         <v>163.9</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>164</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>163.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>213</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1408,27 +1580,33 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.99</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H29" t="n">
         <v>208.8</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>209.7</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>207.9</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>273</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1442,27 +1620,33 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.32</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
       <c r="E30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H30" t="n">
         <v>198.3</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>198.7</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>198</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>360</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1476,25 +1660,31 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
         <v>2.38</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.01</v>
-      </c>
       <c r="E31" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>188.1</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>188.6</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>187.6</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1506,27 +1696,33 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
         <v>2.7</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H32" t="n">
         <v>100.2</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>100.5</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>67</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1540,27 +1736,33 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>23</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.65</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.02</v>
-      </c>
       <c r="E33" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H33" t="n">
         <v>270.9</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>271.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>270.5</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>450</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160</v>
       </c>
     </row>

--- a/newwisedata/testssh_ans/mcmc8.xlsx
+++ b/newwisedata/testssh_ans/mcmc8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>eta</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>eta</t>
+          <t>pv</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>wf</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,30 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>Dup</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Ddown</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Dup</t>
+          <t>D_wise</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ddown</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>D_wise</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -500,33 +490,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>4.05</v>
       </c>
       <c r="D2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>150.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>151</v>
       </c>
       <c r="H2" t="n">
-        <v>150.5</v>
+        <v>150.1</v>
       </c>
       <c r="I2" t="n">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="J2" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>193</v>
-      </c>
-      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -540,33 +524,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>2.31</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49</v>
+        <v>132.2</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06</v>
+        <v>132.3</v>
       </c>
       <c r="H3" t="n">
-        <v>132.2</v>
+        <v>132.1</v>
       </c>
       <c r="I3" t="n">
-        <v>132.3</v>
+        <v>208</v>
       </c>
       <c r="J3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>208</v>
-      </c>
-      <c r="L3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -580,33 +558,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>2.23</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>99.8</v>
       </c>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.27</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="J4" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>143</v>
-      </c>
-      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -620,33 +592,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2.52</v>
       </c>
       <c r="D5" t="n">
-        <v>2.52</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.47</v>
+        <v>138.9</v>
       </c>
       <c r="F5" t="n">
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>139.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138.9</v>
+        <v>138.3</v>
       </c>
       <c r="I5" t="n">
-        <v>139.4</v>
+        <v>193</v>
       </c>
       <c r="J5" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>193</v>
-      </c>
-      <c r="L5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,33 +626,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>1.94</v>
       </c>
       <c r="D6" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>172</v>
       </c>
       <c r="F6" t="n">
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.15</v>
+        <v>172.1</v>
       </c>
       <c r="H6" t="n">
-        <v>172</v>
+        <v>171.9</v>
       </c>
       <c r="I6" t="n">
-        <v>172.1</v>
+        <v>390</v>
       </c>
       <c r="J6" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>390</v>
-      </c>
-      <c r="L6" t="n">
         <v>130</v>
       </c>
     </row>
@@ -700,33 +660,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>74.2</v>
       </c>
       <c r="F7" t="n">
         <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.26</v>
+        <v>74.5</v>
       </c>
       <c r="H7" t="n">
-        <v>74.2</v>
+        <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>74.5</v>
+        <v>111</v>
       </c>
       <c r="J7" t="n">
-        <v>74</v>
-      </c>
-      <c r="K7" t="n">
-        <v>111</v>
-      </c>
-      <c r="L7" t="n">
         <v>18</v>
       </c>
     </row>
@@ -740,33 +694,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>925</v>
       </c>
       <c r="F8" t="n">
         <v>0.057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.52</v>
+        <v>926</v>
       </c>
       <c r="H8" t="n">
-        <v>925</v>
+        <v>923.8</v>
       </c>
       <c r="I8" t="n">
-        <v>926</v>
+        <v>2938</v>
       </c>
       <c r="J8" t="n">
-        <v>923.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2938</v>
-      </c>
-      <c r="L8" t="n">
         <v>470</v>
       </c>
     </row>
@@ -780,33 +728,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>1.44</v>
       </c>
       <c r="D9" t="n">
-        <v>1.44</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="n">
-        <v>0.49</v>
+        <v>150.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>150.8</v>
       </c>
       <c r="H9" t="n">
-        <v>150.5</v>
+        <v>150.2</v>
       </c>
       <c r="I9" t="n">
-        <v>150.8</v>
+        <v>242</v>
       </c>
       <c r="J9" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>242</v>
-      </c>
-      <c r="L9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -820,33 +762,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>1.66</v>
       </c>
       <c r="D10" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>204.2</v>
       </c>
       <c r="F10" t="n">
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>204.5</v>
       </c>
       <c r="H10" t="n">
-        <v>204.2</v>
+        <v>203.9</v>
       </c>
       <c r="I10" t="n">
-        <v>204.5</v>
+        <v>254</v>
       </c>
       <c r="J10" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>254</v>
-      </c>
-      <c r="L10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -860,33 +796,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>1.63</v>
       </c>
       <c r="D11" t="n">
-        <v>1.63</v>
+        <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>238.2</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>238.5</v>
       </c>
       <c r="H11" t="n">
-        <v>238.2</v>
+        <v>238</v>
       </c>
       <c r="I11" t="n">
-        <v>238.5</v>
+        <v>382</v>
       </c>
       <c r="J11" t="n">
-        <v>238</v>
-      </c>
-      <c r="K11" t="n">
-        <v>382</v>
-      </c>
-      <c r="L11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -900,33 +830,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>1.89</v>
       </c>
       <c r="D12" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.31</v>
+        <v>126.2</v>
       </c>
       <c r="H12" t="n">
-        <v>126</v>
+        <v>125.8</v>
       </c>
       <c r="I12" t="n">
-        <v>126.2</v>
+        <v>315</v>
       </c>
       <c r="J12" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>315</v>
-      </c>
-      <c r="L12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -940,33 +864,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>1.15</v>
       </c>
       <c r="D13" t="n">
-        <v>1.15</v>
+        <v>0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.49</v>
+        <v>301.8</v>
       </c>
       <c r="F13" t="n">
         <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05</v>
+        <v>302.2</v>
       </c>
       <c r="H13" t="n">
-        <v>301.8</v>
+        <v>301.5</v>
       </c>
       <c r="I13" t="n">
-        <v>302.2</v>
+        <v>628</v>
       </c>
       <c r="J13" t="n">
-        <v>301.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>628</v>
-      </c>
-      <c r="L13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -980,33 +898,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>1.92</v>
       </c>
       <c r="D14" t="n">
-        <v>1.92</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>203.4</v>
       </c>
       <c r="F14" t="n">
         <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08</v>
+        <v>203.8</v>
       </c>
       <c r="H14" t="n">
-        <v>203.4</v>
+        <v>203.1</v>
       </c>
       <c r="I14" t="n">
-        <v>203.8</v>
+        <v>402</v>
       </c>
       <c r="J14" t="n">
-        <v>203.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>402</v>
-      </c>
-      <c r="L14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1020,33 +932,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>2.53</v>
       </c>
       <c r="D15" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>137.5</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.21</v>
+        <v>137.7</v>
       </c>
       <c r="H15" t="n">
-        <v>137.5</v>
+        <v>137.3</v>
       </c>
       <c r="I15" t="n">
-        <v>137.7</v>
+        <v>200</v>
       </c>
       <c r="J15" t="n">
-        <v>137.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>200</v>
-      </c>
-      <c r="L15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1060,33 +966,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>3.64</v>
       </c>
       <c r="D16" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>139.2</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09</v>
+        <v>139.4</v>
       </c>
       <c r="H16" t="n">
-        <v>139.2</v>
+        <v>139</v>
       </c>
       <c r="I16" t="n">
-        <v>139.4</v>
+        <v>180</v>
       </c>
       <c r="J16" t="n">
-        <v>139</v>
-      </c>
-      <c r="K16" t="n">
-        <v>180</v>
-      </c>
-      <c r="L16" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1100,33 +1000,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1.63</v>
       </c>
       <c r="D17" t="n">
-        <v>1.63</v>
+        <v>0.01</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>225.5</v>
       </c>
       <c r="F17" t="n">
         <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>226.1</v>
       </c>
       <c r="H17" t="n">
-        <v>225.5</v>
+        <v>224.9</v>
       </c>
       <c r="I17" t="n">
-        <v>226.1</v>
+        <v>352</v>
       </c>
       <c r="J17" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>352</v>
-      </c>
-      <c r="L17" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1140,33 +1034,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>0.78</v>
       </c>
       <c r="D18" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>1116.6</v>
       </c>
       <c r="F18" t="n">
         <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.39</v>
+        <v>1118.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1116.6</v>
+        <v>1114.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1118.3</v>
+        <v>2877</v>
       </c>
       <c r="J18" t="n">
-        <v>1114.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2877</v>
-      </c>
-      <c r="L18" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1180,33 +1068,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>0.24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07000000000000001</v>
+        <v>600</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>600</v>
       </c>
       <c r="H19" t="n">
         <v>600</v>
       </c>
       <c r="I19" t="n">
-        <v>600</v>
+        <v>212</v>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
-      </c>
-      <c r="K19" t="n">
-        <v>212</v>
-      </c>
-      <c r="L19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1223,30 +1105,24 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="E20" t="n">
-        <v>0.28</v>
+        <v>120.9</v>
       </c>
       <c r="F20" t="n">
         <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.17</v>
+        <v>121.1</v>
       </c>
       <c r="H20" t="n">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="I20" t="n">
-        <v>121.1</v>
+        <v>101</v>
       </c>
       <c r="J20" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>101</v>
-      </c>
-      <c r="L20" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1260,33 +1136,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>124.3</v>
       </c>
       <c r="F21" t="n">
         <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11</v>
+        <v>124.7</v>
       </c>
       <c r="H21" t="n">
-        <v>124.3</v>
+        <v>124</v>
       </c>
       <c r="I21" t="n">
-        <v>124.7</v>
+        <v>236</v>
       </c>
       <c r="J21" t="n">
-        <v>124</v>
-      </c>
-      <c r="K21" t="n">
-        <v>236</v>
-      </c>
-      <c r="L21" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1300,33 +1170,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>2.29</v>
       </c>
       <c r="D22" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>133</v>
       </c>
       <c r="F22" t="n">
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07000000000000001</v>
+        <v>133.2</v>
       </c>
       <c r="H22" t="n">
-        <v>133</v>
+        <v>132.7</v>
       </c>
       <c r="I22" t="n">
-        <v>133.2</v>
+        <v>153</v>
       </c>
       <c r="J22" t="n">
-        <v>132.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>153</v>
-      </c>
-      <c r="L22" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1340,33 +1204,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>1.39</v>
       </c>
       <c r="D23" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>112.1</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.13</v>
+        <v>112.3</v>
       </c>
       <c r="H23" t="n">
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
       <c r="I23" t="n">
-        <v>112.3</v>
+        <v>234</v>
       </c>
       <c r="J23" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>234</v>
-      </c>
-      <c r="L23" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1380,33 +1238,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>0.28</v>
       </c>
       <c r="D24" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24</v>
+        <v>600</v>
       </c>
       <c r="F24" t="n">
         <v>0.057</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H24" t="n">
         <v>600</v>
       </c>
       <c r="I24" t="n">
-        <v>600</v>
+        <v>3107</v>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3107</v>
-      </c>
-      <c r="L24" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1420,33 +1272,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>2.81</v>
       </c>
       <c r="D25" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>162.2</v>
       </c>
       <c r="F25" t="n">
         <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.19</v>
+        <v>162.6</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2</v>
+        <v>161.9</v>
       </c>
       <c r="I25" t="n">
-        <v>162.6</v>
+        <v>228</v>
       </c>
       <c r="J25" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>228</v>
-      </c>
-      <c r="L25" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1460,33 +1306,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>141.8</v>
       </c>
       <c r="F26" t="n">
         <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.24</v>
+        <v>141.9</v>
       </c>
       <c r="H26" t="n">
-        <v>141.8</v>
+        <v>141.6</v>
       </c>
       <c r="I26" t="n">
-        <v>141.9</v>
+        <v>218</v>
       </c>
       <c r="J26" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>218</v>
-      </c>
-      <c r="L26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1500,33 +1340,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>2.94</v>
       </c>
       <c r="D27" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>120.2</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.15</v>
+        <v>120.5</v>
       </c>
       <c r="H27" t="n">
-        <v>120.2</v>
+        <v>119.8</v>
       </c>
       <c r="I27" t="n">
-        <v>120.5</v>
+        <v>180</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>180</v>
-      </c>
-      <c r="L27" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1540,33 +1374,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>163.9</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.14</v>
+        <v>164</v>
       </c>
       <c r="H28" t="n">
-        <v>163.9</v>
+        <v>163.8</v>
       </c>
       <c r="I28" t="n">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="J28" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>213</v>
-      </c>
-      <c r="L28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1580,33 +1408,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="D29" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
       <c r="E29" t="n">
-        <v>0.49</v>
+        <v>208.8</v>
       </c>
       <c r="F29" t="n">
         <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.11</v>
+        <v>209.7</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8</v>
+        <v>207.9</v>
       </c>
       <c r="I29" t="n">
-        <v>209.7</v>
+        <v>273</v>
       </c>
       <c r="J29" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>273</v>
-      </c>
-      <c r="L29" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1620,33 +1442,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>1.32</v>
       </c>
       <c r="D30" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>198.3</v>
       </c>
       <c r="F30" t="n">
         <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.11</v>
+        <v>198.7</v>
       </c>
       <c r="H30" t="n">
-        <v>198.3</v>
+        <v>198</v>
       </c>
       <c r="I30" t="n">
-        <v>198.7</v>
+        <v>360</v>
       </c>
       <c r="J30" t="n">
-        <v>198</v>
-      </c>
-      <c r="K30" t="n">
-        <v>360</v>
-      </c>
-      <c r="L30" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1660,31 +1476,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="D31" t="n">
-        <v>2.38</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.49</v>
+        <v>188.1</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07000000000000001</v>
+        <v>188.6</v>
       </c>
       <c r="H31" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>188.6</v>
-      </c>
-      <c r="J31" t="n">
         <v>187.6</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1696,33 +1506,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="D32" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>100.2</v>
       </c>
       <c r="F32" t="n">
         <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.15</v>
+        <v>100.5</v>
       </c>
       <c r="H32" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>100.5</v>
+        <v>67</v>
       </c>
       <c r="J32" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>67</v>
-      </c>
-      <c r="L32" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1736,33 +1540,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>0.65</v>
       </c>
       <c r="D33" t="n">
-        <v>0.65</v>
+        <v>0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>0.49</v>
+        <v>270.9</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06</v>
+        <v>271.4</v>
       </c>
       <c r="H33" t="n">
-        <v>270.9</v>
+        <v>270.5</v>
       </c>
       <c r="I33" t="n">
-        <v>271.4</v>
+        <v>450</v>
       </c>
       <c r="J33" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>450</v>
-      </c>
-      <c r="L33" t="n">
         <v>160</v>
       </c>
     </row>

--- a/newwisedata/testssh_ans/mcmc8.xlsx
+++ b/newwisedata/testssh_ans/mcmc8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pv</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pv_wise</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Dup</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ddown</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>D_wise</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>D_wiseErr</t>
         </is>
@@ -490,27 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
         <v>4.05</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>150.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>151</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>150.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>193</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -524,27 +532,30 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.31</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.01</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
         <v>132.2</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>132.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>132.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>208</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,27 +569,30 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.23</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>99.8</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>99.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>143</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -592,27 +606,30 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.05</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>138.9</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>139.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>138.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>193</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -626,27 +643,30 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>130</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.94</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
         <v>172</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>172.1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>171.9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>390</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>130</v>
       </c>
     </row>
@@ -660,27 +680,30 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.95</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>74.2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>74.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>74</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>111</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>18</v>
       </c>
     </row>
@@ -694,27 +717,30 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.4</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.057</v>
       </c>
       <c r="G8" t="n">
+        <v>925</v>
+      </c>
+      <c r="H8" t="n">
         <v>926</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>923.8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2938</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>470</v>
       </c>
     </row>
@@ -728,27 +754,30 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.44</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.02</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>150.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>150.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>150.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>242</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,27 +791,30 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.66</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>204.2</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>204.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>203.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>254</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -796,27 +828,30 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.63</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.01</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>238.2</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>238.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>238</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>382</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>132</v>
       </c>
     </row>
@@ -830,27 +865,30 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.89</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>126</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>126.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>125.8</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>315</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -864,27 +902,30 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.02</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>301.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>302.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>301.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>628</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>17</v>
       </c>
     </row>
@@ -898,27 +939,30 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.92</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>203.4</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>203.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>203.1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>402</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -932,27 +976,30 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
         <v>2.53</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>137.5</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>137.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>137.3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>200</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -966,27 +1013,30 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>32</v>
+      </c>
+      <c r="D16" t="n">
         <v>3.64</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
         <v>139.2</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>139.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>139</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>180</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1000,27 +1050,30 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.63</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.01</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>225.5</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>226.1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>224.9</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>352</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1034,27 +1087,30 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.78</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
         <v>1116.6</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1118.3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1114.9</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>2877</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1068,13 +1124,13 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.24</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.05</v>
-      </c>
-      <c r="E19" t="n">
-        <v>600</v>
       </c>
       <c r="F19" t="n">
         <v>0.2</v>
@@ -1086,9 +1142,12 @@
         <v>600</v>
       </c>
       <c r="I19" t="n">
+        <v>600</v>
+      </c>
+      <c r="J19" t="n">
         <v>212</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1105,24 +1164,27 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.01</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>120.9</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>121.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>120.8</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>101</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1136,27 +1198,30 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.7</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>124.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>124.7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>124</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>236</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1170,27 +1235,30 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
         <v>2.29</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
         <v>133</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>133.2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>132.7</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>153</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1204,27 +1272,30 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.39</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>112.1</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>112.3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>111.9</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>234</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1238,13 +1309,13 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.28</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.16</v>
-      </c>
-      <c r="E24" t="n">
-        <v>600</v>
       </c>
       <c r="F24" t="n">
         <v>0.057</v>
@@ -1256,9 +1327,12 @@
         <v>600</v>
       </c>
       <c r="I24" t="n">
+        <v>600</v>
+      </c>
+      <c r="J24" t="n">
         <v>3107</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -1272,27 +1346,30 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
         <v>2.81</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
         <v>162.2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>162.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>161.9</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>228</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1306,27 +1383,30 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
         <v>141.8</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>141.9</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>141.6</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>218</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1340,27 +1420,30 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
         <v>2.94</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>120.2</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>120.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>119.8</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>180</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1374,27 +1457,30 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
         <v>163.9</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>164</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>163.8</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>213</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1408,27 +1494,30 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.99</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.02</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
         <v>208.8</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>209.7</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>207.9</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>273</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1442,27 +1531,30 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.32</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
         <v>198.3</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>198.7</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>198</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>360</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1476,25 +1568,28 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
         <v>2.38</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.01</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
         <v>188.1</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>188.6</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>187.6</v>
       </c>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1506,27 +1601,30 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
         <v>2.7</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
         <v>100.2</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>100.5</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>67</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1540,27 +1638,30 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>23</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.65</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.02</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
         <v>270.9</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>271.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>270.5</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>450</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>160</v>
       </c>
     </row>
